--- a/Documents/2_작업문서/DB테이블 명세_By춘.xlsx
+++ b/Documents/2_작업문서/DB테이블 명세_By춘.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool\Desktop\GAI\project01\project_Appian\Documents\2_작업문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A592605-A061-43C0-A169-C85389AF2BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A47F71C-4706-4EBD-8B9A-09F7011727C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
     <sheet name="farm" sheetId="3" r:id="rId2"/>
-    <sheet name="farmAppliction" sheetId="8" r:id="rId3"/>
+    <sheet name="farmApplication" sheetId="8" r:id="rId3"/>
     <sheet name="content" sheetId="4" r:id="rId4"/>
     <sheet name="content_comment" sheetId="13" r:id="rId5"/>
     <sheet name="comment" sheetId="12" r:id="rId6"/>
@@ -569,10 +569,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>today</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>test01</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -598,6 +594,10 @@
   </si>
   <si>
     <t>day</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_day</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1134,13 +1134,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1880,12 +1880,12 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="48">
+      <c r="I7" s="49">
         <v>45125</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="9" t="s">
         <v>81</v>
       </c>
@@ -1983,7 +1983,7 @@
   <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -2025,7 +2025,7 @@
         <v>42</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -2056,7 +2056,7 @@
       <c r="E5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="50"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="24"/>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2088,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -2099,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -2110,7 +2110,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -2142,16 +2142,16 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" t="s">
         <v>136</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>137</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>138</v>
-      </c>
-      <c r="I17" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/2_작업문서/DB테이블 명세_By춘.xlsx
+++ b/Documents/2_작업문서/DB테이블 명세_By춘.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool\Desktop\GAI\project01\project_Appian\Documents\2_작업문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool\Desktop\GAI\GAI\project01\project_Appian\Documents\2_작업문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA2F1C0-3085-4DF5-A1BA-D46EA903E0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8688A78A-922E-4041-8517-5FEF8C258210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
+    <workbookView xWindow="28710" yWindow="0" windowWidth="9780" windowHeight="10890" firstSheet="5" activeTab="5" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="135">
   <si>
     <t>회원 구분</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -573,6 +573,14 @@
   </si>
   <si>
     <t>감자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.13253602</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>126.6866741</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,9 +962,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1004,9 +1009,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1355,11 +1357,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F95B99-ADB4-40D4-87B6-70796DF2F7CE}">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.19921875" customWidth="1"/>
@@ -1373,12 +1375,12 @@
     <col min="10" max="10" width="16.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" thickBot="1">
+    <row r="2" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="1" customFormat="1">
+    <row r="3" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>92</v>
@@ -1405,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:10" s="1" customFormat="1">
+    <row r="4" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1434,7 +1436,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:10" s="1" customFormat="1">
+    <row r="5" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1463,7 +1465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:10" s="1" customFormat="1">
+    <row r="6" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1492,15 +1494,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="1" customFormat="1" ht="35.4" thickBot="1">
+    <row r="7" spans="2:10" s="1" customFormat="1" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="10"/>
       <c r="C7" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
         <v>46</v>
       </c>
@@ -1527,163 +1527,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3AE791-CBEF-4ECB-BBB5-161C161B7909}">
   <dimension ref="B2:U7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView topLeftCell="O2" zoomScale="86" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="25"/>
-    <col min="2" max="2" width="15.796875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.8984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.796875" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.19921875" style="25" customWidth="1"/>
-    <col min="13" max="13" width="17.296875" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.796875" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.69921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.296875" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.09765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" style="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.296875" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.8984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.796875" style="25"/>
+    <col min="1" max="1" width="8.796875" style="24"/>
+    <col min="2" max="2" width="15.796875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.8984375" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.796875" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.19921875" style="24" customWidth="1"/>
+    <col min="13" max="13" width="17.296875" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.796875" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.59765625" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.69921875" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.296875" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.09765625" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.296875" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.8984375" style="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.796875" style="24"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="18" thickBot="1">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-    </row>
-    <row r="3" spans="2:21">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="26"/>
-    </row>
-    <row r="4" spans="2:21">
-      <c r="B4" s="30" t="s">
+      <c r="U3" s="25"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="26"/>
-    </row>
-    <row r="5" spans="2:21">
-      <c r="B5" s="30" t="s">
+      <c r="U4" s="25"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -1741,93 +1741,93 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:21">
-      <c r="B6" s="30" t="s">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>1</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <v>120000</v>
       </c>
-      <c r="H6" s="33">
-        <v>35.132536020000003</v>
-      </c>
-      <c r="I6" s="33">
-        <v>126.6866741</v>
-      </c>
-      <c r="J6" s="33" t="s">
+      <c r="H6" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="32">
         <v>5</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="33" t="s">
+      <c r="M6" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="P6" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="Q6" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="33" t="s">
+      <c r="R6" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="S6" s="33" t="s">
+      <c r="S6" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="T6" s="34" t="s">
+      <c r="T6" s="33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="18" thickBot="1">
-      <c r="B7" s="35"/>
-      <c r="C7" s="36" t="s">
+    <row r="7" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="37" t="s">
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="36" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1842,11 +1842,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9891B4-0595-4143-8DFC-B04CDEE1B7A6}">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
@@ -1855,12 +1855,12 @@
     <col min="6" max="6" width="14.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18" thickBot="1">
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>98</v>
@@ -1875,7 +1875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1909,44 +1909,44 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="39">
         <v>1</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="42">
         <v>1</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="40">
         <v>45154</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="18" thickBot="1">
-      <c r="B7" s="45"/>
-      <c r="C7" s="48" t="s">
+    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="43"/>
+      <c r="C7" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="45" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="2:6" s="41" customFormat="1">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1959,11 +1959,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F4FD11-30BD-480C-9B77-8F7FC511240E}">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
@@ -1976,12 +1976,12 @@
     <col min="10" max="10" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18" thickBot="1">
+    <row r="2" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>105</v>
@@ -2002,7 +2002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2061,7 +2061,7 @@
       <c r="E6" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>114</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -2071,13 +2071,13 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="18" thickBot="1">
+    <row r="7" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="11"/>
@@ -2097,11 +2097,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429273FE-F8CE-4C36-9C69-DD53F000EE59}">
   <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.3984375" bestFit="1" customWidth="1"/>
@@ -2110,12 +2110,12 @@
     <col min="7" max="7" width="25.59765625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18" thickBot="1">
+    <row r="2" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -2133,7 +2133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2193,15 +2193,15 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18" thickBot="1">
+    <row r="7" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="45" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="11"/>
@@ -2219,11 +2219,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69D754-E98B-4255-AA4E-B468BCD1386C}">
   <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.3984375" bestFit="1" customWidth="1"/>
@@ -2231,12 +2231,12 @@
     <col min="6" max="6" width="20.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18" thickBot="1">
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>125</v>
@@ -2251,7 +2251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2302,13 +2302,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="18" thickBot="1">
+    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="48" t="s">
         <v>130</v>
       </c>
       <c r="F7" s="12" t="s">
